--- a/4semestr/InformatykaEkonomiczna/ankieta.xlsx
+++ b/4semestr/InformatykaEkonomiczna/ankieta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oskarpasko/Documents/GitHub/University/4semestr/InformatykaEkonomiczna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E226C-D730-DA4F-B06E-7782ACD3B006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5AA0C-2F62-7747-944A-B9BFF7626B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,14 +616,17 @@
   <dimension ref="A1:U114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA15" sqref="AA15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="2"/>
+    <col min="2" max="8" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="4.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="6.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="19" x14ac:dyDescent="0.25">
